--- a/data/light-reading-cloud/reading-cloud-account-feign-client_structure.xlsx
+++ b/data/light-reading-cloud/reading-cloud-account-feign-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="63">
   <si>
     <t>Class Name</t>
   </si>
@@ -144,15 +144,15 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>val$cause</t>
+  </si>
+  <si>
+    <t>java.lang.Throwable</t>
+  </si>
+  <si>
     <t>this$0</t>
   </si>
   <si>
-    <t>val$cause</t>
-  </si>
-  <si>
-    <t>java.lang.Throwable</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
@@ -204,13 +204,13 @@
     <t>9</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>60</v>
@@ -903,24 +903,24 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -928,10 +928,10 @@
         <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -939,32 +939,10 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -1040,13 +1018,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
